--- a/principalList.xlsx
+++ b/principalList.xlsx
@@ -113,9 +113,6 @@
     <t>Qualcomm/RF360</t>
   </si>
   <si>
-    <t>QFR</t>
-  </si>
-  <si>
     <t>Surge Components</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>Auto detect principal</t>
+  </si>
+  <si>
+    <t>QRF</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,10 +482,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -589,12 +589,12 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
